--- a/docs/shrcore/shr-core-AppointmentParticipation-model.xlsx
+++ b/docs/shrcore/shr-core-AppointmentParticipation-model.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="55">
   <si>
     <t>Path</t>
   </si>
@@ -154,10 +154,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1553854
-</t>
   </si>
   <si>
     <t>shr-core-AppointmentParticipation-model.appointmentParticipant[x]</t>
@@ -334,7 +330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -368,7 +364,7 @@
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="51.2890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="34.6796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
@@ -647,7 +643,7 @@
         <v>45</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>36</v>
@@ -679,7 +675,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -702,13 +698,13 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>49</v>
-      </c>
       <c r="L4" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -759,7 +755,7 @@
         <v>36</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>37</v>
@@ -776,7 +772,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -802,10 +798,10 @@
         <v>42</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -836,7 +832,7 @@
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" t="s" s="2">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z5" t="s" s="2">
         <v>36</v>
@@ -854,7 +850,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -871,7 +867,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -897,10 +893,10 @@
         <v>42</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -931,7 +927,7 @@
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Z6" t="s" s="2">
         <v>36</v>
@@ -949,7 +945,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>41</v>
